--- a/agg_state/agg_state_2010_2011.xlsx
+++ b/agg_state/agg_state_2010_2011.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="B2">
-        <v>0.952</v>
+        <v>1.04</v>
       </c>
       <c r="C2">
-        <v>0.93</v>
+        <v>0.913</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="B2">
-        <v>0.956</v>
+        <v>0.813</v>
       </c>
       <c r="C2">
-        <v>0.924</v>
+        <v>0.915</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.002</v>
+        <v>-0.019</v>
       </c>
       <c r="B2">
-        <v>0.892</v>
+        <v>0.72</v>
       </c>
       <c r="C2">
-        <v>804.8</v>
+        <v>1849.61</v>
       </c>
       <c r="D2">
-        <v>0.009</v>
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
